--- a/conta/main/tests/data/plantilla.xlsx
+++ b/conta/main/tests/data/plantilla.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Nextcloud\Programacion\GitHub\contabilidad\conta\main\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1007535-D11A-48D5-B36D-D4E7D2280421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF76C40-4E9B-445D-8B66-EBB5397236C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="3" r:id="rId1"/>
     <sheet name="compleja" sheetId="2" r:id="rId2"/>
-    <sheet name="Cuentas" sheetId="4" r:id="rId3"/>
+    <sheet name="cuentas" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>Fecha</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Pan</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -823,16 +829,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -852,6 +848,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1175,7 +1181,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92DFB669-943E-4FB1-BFE0-6600908D48A8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="asient">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92DFB669-943E-4FB1-BFE0-6600908D48A8}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="asient">
   <location ref="J3:M5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -1573,16 +1579,16 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="6" xr3:uid="{9AD972E4-C579-4424-B1C1-7A8548B415A4}" name="id"/>
-    <tableColumn id="1" xr3:uid="{F37AE433-6E34-4726-AC7C-8ED9ECE4E316}" name="Fecha" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{93B832D8-D900-4EA3-971C-04F4F4F73E5E}" name="Descripción" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{365E1047-CFC9-4957-AC96-690DF270BD6C}" name="Debe" dataDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{F37AE433-6E34-4726-AC7C-8ED9ECE4E316}" name="Fecha" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{93B832D8-D900-4EA3-971C-04F4F4F73E5E}" name="Descripción" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{365E1047-CFC9-4957-AC96-690DF270BD6C}" name="Debe" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>0</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C8820A2C-D1F4-429F-BEE6-9CFD5D206202}" name="Haber" dataDxfId="4" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{C8820A2C-D1F4-429F-BEE6-9CFD5D206202}" name="Haber" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>0</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A593CEC0-C069-4610-84D5-1989C29A9B0E}" name="Cuenta" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{1BDE309D-E6E3-4D7F-9F73-061A12ACC2FE}" name="Cuenta descr" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{A593CEC0-C069-4610-84D5-1989C29A9B0E}" name="Cuenta" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{1BDE309D-E6E3-4D7F-9F73-061A12ACC2FE}" name="Cuenta descr" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(Mov_complejo[[#This Row],[Cuenta]],Cuentas[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1591,11 +1597,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{447D7112-259D-4C0C-AF28-055C99274BD5}" name="Cuentas" displayName="Cuentas" ref="F4:G17" totalsRowShown="0">
-  <autoFilter ref="F4:G17" xr:uid="{6F18564F-6990-4186-B512-9E1C6E9F5F3A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9DE84074-E3ED-46A0-8037-CE36B265F541}" name="Cuenta" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{447D7112-259D-4C0C-AF28-055C99274BD5}" name="Cuentas" displayName="Cuentas" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{6F18564F-6990-4186-B512-9E1C6E9F5F3A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9DE84074-E3ED-46A0-8037-CE36B265F541}" name="Cuenta" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{C60FC6EA-5DD3-4D2E-A6C5-929976B15FC4}" name="Descripción"/>
+    <tableColumn id="3" xr3:uid="{848D46B5-FA01-4722-9CF1-E46289563238}" name="Tipo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2067,7 +2074,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C23EA-5D97-488D-B298-E89BE659774C}">
-  <dimension ref="B3:P18"/>
+  <dimension ref="B3:Q18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -2087,7 +2094,7 @@
     <col min="16" max="16" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +2132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2158,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2222,14 +2229,17 @@
         <v>Cenas, pinchos…</v>
       </c>
       <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6:P18">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(P3,Cuentas[Descripción]))))</f>
+        <f t="array" ref="O6:Q18">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(P3,Cuentas[Descripción]))))</f>
         <v>100</v>
       </c>
       <c r="P6" t="str">
         <v>Caja</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q6" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -2259,8 +2269,11 @@
       <c r="P7" t="str">
         <v>Tickets restaurant</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q7" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2290,8 +2303,11 @@
       <c r="P8" t="str">
         <v>Cuenta nómina</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q8" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -2321,82 +2337,112 @@
       <c r="P9" t="str">
         <v>Cuenta ahorro</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q9" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O10" t="str">
         <v>1200</v>
       </c>
       <c r="P10" t="str">
         <v>Tarjeta Visa</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q10" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O11" t="str">
         <v>1201</v>
       </c>
       <c r="P11" t="str">
         <v>Tarjeta Amex</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q11" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O12" t="str">
         <v>1210</v>
       </c>
       <c r="P12" t="str">
         <v>Tarjeta prepago</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q12" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O13" t="str">
         <v>300</v>
       </c>
       <c r="P13" t="str">
         <v>Comida</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q13" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O14" t="str">
         <v>312</v>
       </c>
       <c r="P14" t="str">
         <v>Cenas, pinchos…</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q14" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O15" t="str">
         <v>324</v>
       </c>
       <c r="P15" t="str">
         <v>Gastos coche</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q15" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O16" t="str">
         <v>15</v>
       </c>
       <c r="P16" t="str">
         <v>Hipoteca</v>
       </c>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="Q16" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O17" t="str">
         <v>2001</v>
       </c>
       <c r="P17" t="str">
         <v>Gas casa</v>
       </c>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="Q17" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O18" t="str">
         <v>2000</v>
       </c>
       <c r="P18" t="str">
         <v>Electricidad casa</v>
       </c>
+      <c r="Q18" t="str">
+        <v>balance</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="M4:M5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2410,216 +2456,304 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77992459-7EBD-4FF8-A263-AD3B398FEA90}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="str" cm="1">
-        <f t="array" ref="B5:C17">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(C2,Cuentas[Descripción]))))</f>
+      <c r="G3" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4:G16">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(F1,Cuentas[Descripción]))))</f>
         <v>100</v>
       </c>
-      <c r="C5" t="str">
+      <c r="F4" t="str">
         <v>Caja</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="str">
+      <c r="G4" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="str">
         <v>101</v>
       </c>
-      <c r="C6" t="str">
+      <c r="F5" t="str">
         <v>Tickets restaurant</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="str">
+      <c r="G5" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="str">
         <v>1101</v>
       </c>
-      <c r="C7" t="str">
+      <c r="F6" t="str">
         <v>Cuenta nómina</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="str">
+      <c r="G6" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="str">
         <v>1110</v>
       </c>
-      <c r="C8" t="str">
+      <c r="F7" t="str">
         <v>Cuenta ahorro</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="str">
+      <c r="G7" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="str">
         <v>1200</v>
       </c>
-      <c r="C9" t="str">
+      <c r="F8" t="str">
         <v>Tarjeta Visa</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G8" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1201</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Tarjeta Amex</v>
+      </c>
+      <c r="G9" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1210</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Tarjeta prepago</v>
+      </c>
+      <c r="G10" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="str">
+        <v>300</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Comida</v>
+      </c>
+      <c r="G11" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="str">
+        <v>312</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Cenas, pinchos…</v>
+      </c>
+      <c r="G12" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="str">
+        <v>324</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Gastos coche</v>
+      </c>
+      <c r="G13" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="str">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="str">
-        <v>1201</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Tarjeta Amex</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="str">
-        <v>1210</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Tarjeta prepago</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="str">
-        <v>300</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Comida</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="str">
-        <v>312</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Cenas, pinchos…</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="str">
-        <v>324</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Gastos coche</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="str">
-        <v>15</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="F14" t="str">
         <v>Hipoteca</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="str">
+      <c r="G14" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="str">
         <v>2001</v>
       </c>
-      <c r="C16" t="str">
+      <c r="F15" t="str">
         <v>Gas casa</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="str">
+      <c r="G15" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="str">
         <v>2000</v>
       </c>
-      <c r="C17" t="str">
+      <c r="F16" t="str">
         <v>Electricidad casa</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
+      <c r="G16" t="str">
+        <v>balance</v>
       </c>
     </row>
   </sheetData>
